--- a/config/casedata.xlsx
+++ b/config/casedata.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>Title</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -28,27 +28,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ErrorInfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>test_page_load_normal</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>test_update_app</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_delete_app</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>守护进程配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>test_add_app</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>test_update_app</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_delete_app</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>守护进程配置</t>
+    <t>test_add_app</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加app名称,,add_launch_page,add_version,add_download_url,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加app名称,add_package_name,add_launch_page,add_version,add_download_url,1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -56,23 +64,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>更新失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>页面加载失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加app名称,add_package_name,add_launch_page,add_version,add_download_url</t>
+    <t>添加app名称,add_package_name,add_launch_page,add_version,add_download_url,0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -116,8 +108,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -450,86 +452,185 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4.125" customWidth="1"/>
     <col min="2" max="2" width="23.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="94.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="94.25" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2">
+      <c r="C2" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="3">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" t="s">
-        <v>13</v>
-      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="3"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="3"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="3"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="3"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="3"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="3"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="3"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="3"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="3"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="3"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="3"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="3"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="3"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="3"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="3"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="3"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="3"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/config/casedata.xlsx
+++ b/config/casedata.xlsx
@@ -455,7 +455,7 @@
   <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/config/casedata.xlsx
+++ b/config/casedata.xlsx
@@ -4,17 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="DaemonsConfiguration" sheetId="1" r:id="rId1"/>
+    <sheet name="DeviceManagement" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
   <si>
     <t>Title</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -52,19 +54,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>添加app名称,add_package_name,add_launch_page,add_version,add_download_url,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新app名称,update_package_name,update_launch_page,update_version,update_download_url</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加app名称,add_package_name,add_launch_page,add_version,add_download_url,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_page_load_normal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_add_device</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>添加app名称,,add_launch_page,add_version,add_download_url,0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>添加app名称,add_package_name,add_launch_page,add_version,add_download_url,1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>更新app名称,update_package_name,update_launch_page,update_version,update_download_url</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加app名称,add_package_name,add_launch_page,add_version,add_download_url,0</t>
+    <t>,测试设备1,测试位置,110,65,2,3,测试备注,业务异常:设备ID不能为空！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>080027f1bb7f,测试设备1,测试位置,110,65,2,3,测试备注,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>080027f1bb7f,测试设备1,测试位置,110,65,2,3,测试备注,设备已经存在无需重复添加!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -454,8 +480,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -495,7 +521,7 @@
         <v>8</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
@@ -506,7 +532,7 @@
         <v>7</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
@@ -517,7 +543,7 @@
         <v>7</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
@@ -528,7 +554,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
@@ -631,6 +657,99 @@
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="23.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="82.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
